--- a/Acquisti Sistema Pylon - Unito.xlsx
+++ b/Acquisti Sistema Pylon - Unito.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\Github\Sistema_Pylon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giacomo\Elettronica\Github_Repository\Sistema_Pylon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F87DF-598B-4885-B0AE-81EF773BC190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F3768E-4737-4428-B979-F465EF8B8E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{919D15A3-50BB-4F82-B8B9-179E2E0BB8A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{919D15A3-50BB-4F82-B8B9-179E2E0BB8A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo Ordini Giacomo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
   <si>
     <t xml:space="preserve">Articolo </t>
   </si>
@@ -330,9 +330,6 @@
     <t>luci taglio</t>
   </si>
   <si>
-    <t>Materiale da acquistare</t>
-  </si>
-  <si>
     <t>Totale da acquistare</t>
   </si>
   <si>
@@ -358,6 +355,12 @@
   </si>
   <si>
     <t>Caricabatterie centrae</t>
+  </si>
+  <si>
+    <t>bms 3s centrale</t>
+  </si>
+  <si>
+    <t>Materiale da Acquistare</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -771,24 +774,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B13C806-7CE5-45F5-9685-FF6FD46C60BA}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -805,8 +808,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -820,8 +823,8 @@
         <v>12.989999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -838,12 +841,12 @@
         <v>45</v>
       </c>
       <c r="G3">
-        <f>SUM(D2:D104)</f>
-        <v>1728.0900000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+        <f>SUM(D2:D112)</f>
+        <v>1820.0100000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -864,8 +867,8 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -879,15 +882,15 @@
         <v>7.99</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5">
-        <f>SUM(D107:D115)</f>
-        <v>126.625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+        <f>SUM(D115:D120)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -905,11 +908,11 @@
       </c>
       <c r="G6">
         <f>G3-G4+G5</f>
-        <v>1249.9150000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+        <v>1250.2100000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
@@ -923,8 +926,8 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
@@ -938,8 +941,8 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
@@ -953,8 +956,8 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
@@ -968,8 +971,8 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -983,8 +986,8 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
@@ -1001,8 +1004,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
@@ -1016,8 +1019,8 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
@@ -1034,8 +1037,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
       <c r="B15">
@@ -1052,8 +1055,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
       <c r="B16">
@@ -1070,8 +1073,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
@@ -1085,8 +1088,8 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -1100,8 +1103,8 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
@@ -1115,8 +1118,8 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
@@ -1130,8 +1133,8 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
@@ -1145,8 +1148,8 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
@@ -1160,8 +1163,8 @@
         <v>17.510000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
@@ -1175,8 +1178,8 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
@@ -1190,8 +1193,8 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
@@ -1205,8 +1208,8 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
@@ -1220,8 +1223,8 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
@@ -1235,8 +1238,8 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
@@ -1250,8 +1253,8 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
@@ -1265,8 +1268,8 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
@@ -1280,8 +1283,8 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
@@ -1295,8 +1298,8 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
@@ -1310,8 +1313,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
@@ -1325,8 +1328,8 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
@@ -1340,8 +1343,8 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
@@ -1355,8 +1358,8 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
@@ -1370,8 +1373,8 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
@@ -1385,8 +1388,8 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38">
@@ -1400,8 +1403,8 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1415,8 +1418,8 @@
         <v>56.58</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1430,8 +1433,8 @@
         <v>25.97</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1445,8 +1448,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1463,8 +1466,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>50</v>
       </c>
       <c r="B43">
@@ -1477,8 +1480,8 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>51</v>
       </c>
       <c r="B44">
@@ -1491,8 +1494,8 @@
         <v>37.950000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45">
@@ -1505,8 +1508,8 @@
         <v>38.479999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>53</v>
       </c>
       <c r="B46">
@@ -1519,8 +1522,8 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>54</v>
       </c>
       <c r="B47">
@@ -1533,8 +1536,8 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>55</v>
       </c>
       <c r="B48">
@@ -1547,8 +1550,8 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49">
@@ -1561,8 +1564,8 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>57</v>
       </c>
       <c r="B50">
@@ -1575,8 +1578,8 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>58</v>
       </c>
       <c r="B51">
@@ -1589,8 +1592,8 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>59</v>
       </c>
       <c r="B52">
@@ -1603,8 +1606,8 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53">
@@ -1617,8 +1620,8 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54">
@@ -1631,8 +1634,8 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55">
@@ -1645,8 +1648,8 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56">
@@ -1659,8 +1662,8 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57">
@@ -1673,8 +1676,8 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58">
@@ -1687,8 +1690,8 @@
         <v>7.01</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>64</v>
       </c>
       <c r="B59">
@@ -1701,8 +1704,8 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>65</v>
       </c>
       <c r="B60">
@@ -1715,8 +1718,8 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61">
@@ -1729,8 +1732,8 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>66</v>
       </c>
       <c r="B62">
@@ -1743,8 +1746,8 @@
         <v>17.649999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>67</v>
       </c>
       <c r="B63">
@@ -1757,8 +1760,8 @@
         <v>18.59</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64">
@@ -1771,8 +1774,8 @@
         <v>14.129999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="B65">
@@ -1785,8 +1788,8 @@
         <v>21.06</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66">
@@ -1799,8 +1802,8 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67">
@@ -1813,8 +1816,8 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68">
@@ -1827,8 +1830,8 @@
         <v>26.44</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>59</v>
       </c>
       <c r="B69">
@@ -1841,8 +1844,8 @@
         <v>31.62</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70">
@@ -1855,8 +1858,8 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71">
@@ -1869,8 +1872,8 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72">
@@ -1883,8 +1886,8 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73">
@@ -1897,8 +1900,8 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74">
@@ -1911,8 +1914,8 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75">
@@ -1925,8 +1928,8 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76">
@@ -1939,8 +1942,8 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77">
@@ -1953,8 +1956,8 @@
         <v>35.68</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78">
@@ -1967,8 +1970,8 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79">
@@ -1981,8 +1984,8 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80">
@@ -1995,8 +1998,8 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81">
@@ -2009,8 +2012,8 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82">
@@ -2023,8 +2026,8 @@
         <v>5.61</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83">
@@ -2037,8 +2040,8 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84">
@@ -2051,8 +2054,8 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85">
@@ -2068,8 +2071,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86">
@@ -2085,8 +2088,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87">
@@ -2102,8 +2105,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88">
@@ -2119,8 +2122,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89">
@@ -2136,8 +2139,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>71</v>
       </c>
       <c r="B90">
@@ -2153,8 +2156,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>59</v>
       </c>
       <c r="B91">
@@ -2170,8 +2173,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>72</v>
       </c>
       <c r="B92">
@@ -2187,8 +2190,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -2204,8 +2207,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -2221,8 +2224,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -2238,8 +2241,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>75</v>
       </c>
       <c r="B96">
@@ -2255,8 +2258,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97">
@@ -2272,8 +2275,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>79</v>
       </c>
       <c r="B98">
@@ -2289,8 +2292,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>96</v>
       </c>
       <c r="B99">
@@ -2306,8 +2309,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>97</v>
       </c>
       <c r="B100">
@@ -2323,8 +2326,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>98</v>
       </c>
       <c r="B101">
@@ -2340,8 +2343,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>77</v>
       </c>
       <c r="B102">
@@ -2357,8 +2360,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>99</v>
       </c>
       <c r="B103">
@@ -2374,8 +2377,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>100</v>
       </c>
       <c r="B104">
@@ -2391,148 +2394,157 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>23.96</v>
+      </c>
+      <c r="D105">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <f>D106/B106</f>
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D106">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>26</v>
+        <f t="shared" ref="C107" si="5">D107/B107</f>
+        <v>2.875</v>
       </c>
       <c r="D107">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>2.38</v>
+      </c>
+      <c r="D108">
+        <f>B108*C108</f>
+        <v>19.04</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <f>D109/B109</f>
+        <v>0.44124999999999998</v>
+      </c>
+      <c r="D109">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D110">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>9.6</v>
+      </c>
+      <c r="D111">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D112">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>104</v>
       </c>
-      <c r="B108">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
         <v>20</v>
       </c>
-      <c r="C108">
-        <f>D108/B108</f>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="D108">
-        <v>13.95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="D115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>105</v>
       </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109">
-        <v>20</v>
-      </c>
-      <c r="D109">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>15</v>
       </c>
-      <c r="D110">
+      <c r="D116">
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B111">
-        <v>4</v>
-      </c>
-      <c r="C111">
-        <f t="shared" ref="C111" si="5">D111/B111</f>
-        <v>2.8687499999999999</v>
-      </c>
-      <c r="D111">
-        <f>22.95/2</f>
-        <v>11.475</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B112">
-        <v>8</v>
-      </c>
-      <c r="C112">
-        <v>2.23</v>
-      </c>
-      <c r="D112">
-        <f>B112*C112</f>
-        <v>17.84</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B113">
-        <v>8</v>
-      </c>
-      <c r="C113">
-        <f>D113/B113</f>
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="D113">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B114">
-        <v>4</v>
-      </c>
-      <c r="C114">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D114">
-        <f>B114*C114</f>
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>9.6</v>
-      </c>
-      <c r="D115">
-        <v>9.6</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E1048576">
+  <conditionalFormatting sqref="E115:E1048576 E2:E112">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
